--- a/xlsx/板球_intext.xlsx
+++ b/xlsx/板球_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>板球</t>
   </si>
@@ -29,25 +29,25 @@
     <t>活木球</t>
   </si>
   <si>
-    <t>政策_政策_美國_板球</t>
+    <t>政策_政策_美国_板球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%9D%BF%E7%90%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國際板球理事會</t>
+    <t>国际板球理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%9A%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>團隊運動</t>
+    <t>团队运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bat-and-ball_games</t>
@@ -119,15 +119,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83%E5%B0%8D%E6%8A%97%E8%B3%BD</t>
   </si>
   <si>
-    <t>板球對抗賽</t>
+    <t>板球对抗赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
   </si>
   <si>
-    <t>英格兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>南亞</t>
+    <t>南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%99%AE%E9%83%A1</t>
   </si>
   <si>
-    <t>漢普郡</t>
+    <t>汉普郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83%E8%A7%84%E5%88%99</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%87%8C%E6%AF%8F%E5%B0%8F%E6%99%82</t>
   </si>
   <si>
-    <t>英里每小時</t>
+    <t>英里每小时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E9%87%8C%E6%AF%8F%E5%B0%8F%E6%99%82</t>
   </si>
   <si>
-    <t>公里每小時</t>
+    <t>公里每小时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%93%E9%A3%8E</t>
@@ -413,19 +410,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E6%AE%BA</t>
   </si>
   <si>
-    <t>投殺</t>
+    <t>投杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%B8%E8%BA%AB%E5%87%BA%E5%B1%80</t>
   </si>
   <si>
-    <t>觸身出局</t>
+    <t>触身出局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E6%AE%BA</t>
   </si>
   <si>
-    <t>追殺</t>
+    <t>追杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BB%E6%9D%80</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%9C%A8%E7%90%83%E6%9C%83</t>
   </si>
   <si>
-    <t>香港木球會</t>
+    <t>香港木球会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>籃球</t>
+    <t>篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD%E6%9D%BF%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>英格蘭板球隊</t>
+    <t>英格兰板球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E5%B0%94%E6%9C%AC</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/20-20</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%B6%85%E7%B4%9A%E6%9D%BF%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>印度超級板球聯賽</t>
+    <t>印度超级板球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E8%B6%85%E7%B4%9A%E6%9D%BF%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>巴基斯坦超級板球聯賽</t>
+    <t>巴基斯坦超级板球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%81%94%E9%85%8B</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83%E7%B5%B1%E8%A8%88%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>板球統計用語</t>
+    <t>板球统计用语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marylebone_Cricket_Club</t>
@@ -563,13 +560,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1477,7 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>17</v>
@@ -1506,10 +1503,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1535,10 +1532,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1564,10 +1561,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>18</v>
@@ -1593,10 +1590,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1622,10 +1619,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1651,10 +1648,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1680,10 +1677,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1709,10 +1706,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1738,10 +1735,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1767,10 +1764,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1796,10 +1793,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -1825,10 +1822,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1854,10 +1851,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1883,10 +1880,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1912,10 +1909,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>8</v>
@@ -1941,10 +1938,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -1970,10 +1967,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1999,10 +1996,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2028,10 +2025,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2057,10 +2054,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2086,10 +2083,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2115,10 +2112,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2144,10 +2141,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2173,10 +2170,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -2231,10 +2228,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2260,10 +2257,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>15</v>
@@ -2318,10 +2315,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2347,10 +2344,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2376,10 +2373,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>5</v>
@@ -2405,10 +2402,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2434,10 +2431,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2463,10 +2460,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2492,10 +2489,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -2521,10 +2518,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -2550,10 +2547,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2579,10 +2576,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F57" t="s">
         <v>99</v>
-      </c>
-      <c r="F57" t="s">
-        <v>100</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2608,10 +2605,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F58" t="s">
         <v>89</v>
-      </c>
-      <c r="F58" t="s">
-        <v>90</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2637,10 +2634,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
         <v>89</v>
-      </c>
-      <c r="F59" t="s">
-        <v>90</v>
       </c>
       <c r="G59" t="n">
         <v>7</v>
@@ -2666,10 +2663,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>102</v>
+      </c>
+      <c r="F60" t="s">
         <v>103</v>
-      </c>
-      <c r="F60" t="s">
-        <v>104</v>
       </c>
       <c r="G60" t="n">
         <v>39</v>
@@ -2695,10 +2692,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" t="s">
         <v>107</v>
-      </c>
-      <c r="F61" t="s">
-        <v>108</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2724,10 +2721,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
         <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>110</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2753,10 +2750,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
         <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2782,10 +2779,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F64" t="s">
         <v>113</v>
-      </c>
-      <c r="F64" t="s">
-        <v>114</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2811,10 +2808,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" t="s">
         <v>115</v>
-      </c>
-      <c r="F65" t="s">
-        <v>116</v>
       </c>
       <c r="G65" t="n">
         <v>97</v>
@@ -2840,10 +2837,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s">
         <v>117</v>
-      </c>
-      <c r="F66" t="s">
-        <v>118</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2869,10 +2866,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F67" t="s">
         <v>87</v>
-      </c>
-      <c r="F67" t="s">
-        <v>88</v>
       </c>
       <c r="G67" t="n">
         <v>64</v>
@@ -2898,10 +2895,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" t="s">
         <v>119</v>
-      </c>
-      <c r="F68" t="s">
-        <v>120</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -2927,10 +2924,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
         <v>121</v>
-      </c>
-      <c r="F69" t="s">
-        <v>122</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2956,10 +2953,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
         <v>123</v>
-      </c>
-      <c r="F70" t="s">
-        <v>124</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2985,10 +2982,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
         <v>125</v>
-      </c>
-      <c r="F71" t="s">
-        <v>126</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3014,10 +3011,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
         <v>127</v>
-      </c>
-      <c r="F72" t="s">
-        <v>128</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3043,10 +3040,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F73" t="s">
         <v>103</v>
-      </c>
-      <c r="F73" t="s">
-        <v>104</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3072,10 +3069,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" t="s">
         <v>129</v>
-      </c>
-      <c r="F74" t="s">
-        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3101,10 +3098,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
         <v>131</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3130,10 +3127,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76" t="s">
         <v>133</v>
-      </c>
-      <c r="F76" t="s">
-        <v>134</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3159,10 +3156,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" t="s">
         <v>135</v>
-      </c>
-      <c r="F77" t="s">
-        <v>136</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3188,10 +3185,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
         <v>137</v>
-      </c>
-      <c r="F78" t="s">
-        <v>138</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3217,10 +3214,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" t="s">
         <v>89</v>
-      </c>
-      <c r="F79" t="s">
-        <v>90</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3246,10 +3243,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" t="s">
         <v>139</v>
-      </c>
-      <c r="F80" t="s">
-        <v>140</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3275,10 +3272,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" t="s">
         <v>141</v>
-      </c>
-      <c r="F81" t="s">
-        <v>142</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3304,10 +3301,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" t="s">
         <v>143</v>
-      </c>
-      <c r="F82" t="s">
-        <v>144</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3333,10 +3330,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>144</v>
+      </c>
+      <c r="F83" t="s">
         <v>145</v>
-      </c>
-      <c r="F83" t="s">
-        <v>146</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3362,10 +3359,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" t="s">
         <v>147</v>
-      </c>
-      <c r="F84" t="s">
-        <v>148</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3391,10 +3388,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" t="s">
         <v>149</v>
-      </c>
-      <c r="F85" t="s">
-        <v>150</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -3420,10 +3417,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" t="s">
         <v>151</v>
-      </c>
-      <c r="F86" t="s">
-        <v>152</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3449,10 +3446,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" t="s">
         <v>153</v>
-      </c>
-      <c r="F87" t="s">
-        <v>154</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3478,10 +3475,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" t="s">
         <v>155</v>
-      </c>
-      <c r="F88" t="s">
-        <v>156</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3507,10 +3504,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" t="s">
         <v>157</v>
-      </c>
-      <c r="F89" t="s">
-        <v>158</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3536,10 +3533,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>158</v>
+      </c>
+      <c r="F90" t="s">
         <v>159</v>
-      </c>
-      <c r="F90" t="s">
-        <v>160</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -3565,10 +3562,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91" t="s">
         <v>141</v>
-      </c>
-      <c r="F91" t="s">
-        <v>142</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3594,10 +3591,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" t="s">
         <v>161</v>
-      </c>
-      <c r="F92" t="s">
-        <v>162</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3623,10 +3620,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" t="s">
         <v>163</v>
-      </c>
-      <c r="F93" t="s">
-        <v>164</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3652,10 +3649,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" t="s">
         <v>165</v>
-      </c>
-      <c r="F94" t="s">
-        <v>166</v>
       </c>
       <c r="G94" t="n">
         <v>9</v>
@@ -3681,10 +3678,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" t="s">
         <v>85</v>
-      </c>
-      <c r="F95" t="s">
-        <v>86</v>
       </c>
       <c r="G95" t="n">
         <v>5</v>
@@ -3710,10 +3707,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" t="s">
         <v>167</v>
-      </c>
-      <c r="F96" t="s">
-        <v>168</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3739,10 +3736,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" t="s">
         <v>169</v>
-      </c>
-      <c r="F97" t="s">
-        <v>170</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3768,10 +3765,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
         <v>171</v>
-      </c>
-      <c r="F98" t="s">
-        <v>172</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3797,10 +3794,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" t="s">
         <v>173</v>
-      </c>
-      <c r="F99" t="s">
-        <v>174</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3826,10 +3823,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>174</v>
+      </c>
+      <c r="F100" t="s">
         <v>175</v>
-      </c>
-      <c r="F100" t="s">
-        <v>176</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3855,10 +3852,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" t="s">
         <v>177</v>
-      </c>
-      <c r="F101" t="s">
-        <v>178</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3884,10 +3881,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>140</v>
+      </c>
+      <c r="F102" t="s">
         <v>141</v>
-      </c>
-      <c r="F102" t="s">
-        <v>142</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3913,10 +3910,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>84</v>
+      </c>
+      <c r="F103" t="s">
         <v>85</v>
-      </c>
-      <c r="F103" t="s">
-        <v>86</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3942,10 +3939,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104" t="s">
         <v>167</v>
-      </c>
-      <c r="F104" t="s">
-        <v>168</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3971,10 +3968,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" t="s">
         <v>179</v>
-      </c>
-      <c r="F105" t="s">
-        <v>180</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4000,10 +3997,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" t="s">
         <v>181</v>
-      </c>
-      <c r="F106" t="s">
-        <v>182</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4029,10 +4026,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>182</v>
+      </c>
+      <c r="F107" t="s">
         <v>183</v>
-      </c>
-      <c r="F107" t="s">
-        <v>184</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4058,10 +4055,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>184</v>
+      </c>
+      <c r="F108" t="s">
         <v>185</v>
-      </c>
-      <c r="F108" t="s">
-        <v>186</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4087,10 +4084,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109" t="s">
         <v>187</v>
-      </c>
-      <c r="F109" t="s">
-        <v>188</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4116,10 +4113,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" t="s">
         <v>189</v>
-      </c>
-      <c r="F110" t="s">
-        <v>190</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>

--- a/xlsx/板球_intext.xlsx
+++ b/xlsx/板球_intext.xlsx
@@ -29,7 +29,7 @@
     <t>活木球</t>
   </si>
   <si>
-    <t>政策_政策_美國_板球</t>
+    <t>体育运动_体育运动_娱乐_板球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%9D%BF%E7%90%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
